--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,6 +69,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,14 +93,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,15 +106,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,55 +152,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,26 +167,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,6 +203,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +423,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,72 +518,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1173,29 +1173,59 @@
         <v>43840</v>
       </c>
       <c r="B11" s="1">
-        <v>15600</v>
+        <v>38480</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>189649</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="1" t="str">
+        <v>166769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>43841</v>
+      </c>
+      <c r="C12" s="1">
+        <v>142546</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" ref="E12:E43" si="1">IF(A12="","",SUM(E11-B12+C12))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>309315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>43841</v>
+      </c>
+      <c r="B13" s="1">
+        <v>47320</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>261995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>43842</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21840</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>240155</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -1758,7 +1788,7 @@
     </row>
     <row r="108" spans="5:5">
       <c r="E108" s="1" t="str">
-        <f t="shared" ref="E108:E139" si="4">IF(A108="","",SUM(E107-B108+C108))</f>
+        <f t="shared" ref="E108:E150" si="4">IF(A108="","",SUM(E107-B108+C108))</f>
         <v/>
       </c>
     </row>
@@ -1950,67 +1980,67 @@
     </row>
     <row r="140" spans="5:5">
       <c r="E140" s="1" t="str">
-        <f>IF(A140="","",SUM(E139-B140+C140))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" s="1" t="str">
-        <f>IF(A141="","",SUM(E140-B141+C141))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" s="1" t="str">
-        <f>IF(A142="","",SUM(E141-B142+C142))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="1" t="str">
-        <f>IF(A143="","",SUM(E142-B143+C143))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="1" t="str">
-        <f>IF(A144="","",SUM(E143-B144+C144))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="1" t="str">
-        <f>IF(A145="","",SUM(E144-B145+C145))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="1" t="str">
-        <f>IF(A146="","",SUM(E145-B146+C146))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="1" t="str">
-        <f>IF(A147="","",SUM(E146-B147+C147))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="1" t="str">
-        <f>IF(A148="","",SUM(E147-B148+C148))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="1" t="str">
-        <f>IF(A149="","",SUM(E148-B149+C149))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="1" t="str">
-        <f>IF(A150="","",SUM(E149-B150+C150))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
@@ -68,6 +68,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -84,8 +92,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,59 +169,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -161,37 +177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +192,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +227,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,19 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,39 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1218,20 +1218,29 @@
         <v>43842</v>
       </c>
       <c r="B14" s="1">
-        <v>21840</v>
+        <v>61360</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="1"/>
-        <v>240155</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>200635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>43843</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13520</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>187115</v>
       </c>
     </row>
     <row r="16" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +68,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,31 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,15 +138,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,30 +162,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +184,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -206,7 +199,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,37 +235,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,73 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,67 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +426,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,30 +469,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -486,11 +485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,20 +515,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,10 +686,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1017,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1233,44 +1244,89 @@
         <v>43843</v>
       </c>
       <c r="B15" s="1">
-        <v>13520</v>
+        <v>60320</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>187115</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>140315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>43843</v>
+      </c>
+      <c r="C16" s="1">
+        <v>53851</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>194166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3">
+        <v>43844</v>
+      </c>
+      <c r="B17" s="1">
+        <v>47840</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>146326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>43844</v>
+      </c>
+      <c r="C18" s="1">
+        <v>52795</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>199121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>43845</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30160</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>168961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>43846</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20800</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>148161</v>
       </c>
     </row>
     <row r="21" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,10 +46,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,7 +77,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,6 +99,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -99,8 +121,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,29 +141,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,7 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,22 +207,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,21 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,103 +235,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,55 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,19 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,70 +502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,20 +517,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1319,26 +1319,44 @@
         <v>43846</v>
       </c>
       <c r="B20" s="1">
-        <v>20800</v>
-      </c>
-      <c r="D20" s="5" t="s">
+        <v>46800</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="1"/>
-        <v>148161</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>122161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>43846</v>
+      </c>
+      <c r="C21" s="1">
+        <v>369564</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>491725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>43847</v>
+      </c>
+      <c r="B22" s="1">
+        <v>13520</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>478205</v>
       </c>
     </row>
     <row r="23" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,38 +169,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,85 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +227,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,67 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,97 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,30 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,6 +432,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,18 +490,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,13 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,8 +1008,8 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1349,26 +1341,44 @@
         <v>43847</v>
       </c>
       <c r="B22" s="1">
-        <v>13520</v>
+        <v>58240</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>478205</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>433485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3">
+        <v>43848</v>
+      </c>
+      <c r="B23" s="1">
+        <v>50960</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>382525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>43849</v>
+      </c>
+      <c r="B24" s="1">
+        <v>34320</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>348205</v>
       </c>
     </row>
     <row r="25" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,12 +46,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,24 +68,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,8 +107,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,30 +131,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -152,30 +153,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,7 +162,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +207,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,37 +235,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,55 +361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,19 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,42 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,18 +416,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +426,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,69 +521,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -523,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1019,8 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1381,16 +1392,34 @@
         <v>348205</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>43850</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40560</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>307645</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
+        <v>43851</v>
+      </c>
+      <c r="B26" s="1">
+        <v>32240</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>275405</v>
       </c>
     </row>
     <row r="27" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +68,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,128 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -235,19 +227,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,163 +377,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,16 +422,60 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,67 +498,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +523,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,131 +544,131 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,16 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1009,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1412,37 +1401,46 @@
         <v>43851</v>
       </c>
       <c r="B26" s="1">
-        <v>32240</v>
-      </c>
-      <c r="D26" s="6" t="s">
+        <v>66560</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>275405</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>241085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
+        <v>43851</v>
+      </c>
+      <c r="C27" s="1">
+        <v>211179</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <f>IF(A27="","",SUM(E26-B27+C27))</f>
+        <v>452264</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A28="","",SUM(E27-B28+C28))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A29="","",SUM(E28-B29+C29))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A30="","",SUM(E29-B30+C30))</f>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +68,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,11 +90,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,8 +106,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,24 +146,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,9 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,15 +178,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,31 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,37 +235,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,145 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +426,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,16 +492,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -463,8 +510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,59 +526,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,13 +686,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1020,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1422,25 +1433,43 @@
         <v>6</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(A27="","",SUM(E26-B27+C27))</f>
+        <f t="shared" si="1"/>
         <v>452264</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="1" t="str">
-        <f>IF(A28="","",SUM(E27-B28+C28))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="1" t="str">
-        <f>IF(A29="","",SUM(E28-B29+C29))</f>
-        <v/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
+        <v>43852</v>
+      </c>
+      <c r="B28" s="1">
+        <v>58240</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>394024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3">
+        <v>43853</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11440</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>382584</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" s="1" t="str">
-        <f>IF(A30="","",SUM(E29-B30+C30))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -77,6 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -84,14 +91,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -106,14 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -124,7 +123,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,11 +137,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,7 +182,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -169,23 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,27 +212,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,13 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,169 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,69 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -531,148 +531,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1457,20 +1457,29 @@
         <v>43853</v>
       </c>
       <c r="B29" s="1">
-        <v>11440</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>53040</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>382584</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>340984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>43854</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17680</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>323304</v>
       </c>
     </row>
     <row r="31" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +83,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -97,33 +91,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +114,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -152,8 +129,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -168,14 +183,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,21 +211,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,41 +421,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +460,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -502,16 +485,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,152 +523,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,9 +685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1009,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1472,14 +1461,14 @@
         <v>43854</v>
       </c>
       <c r="B30" s="1">
-        <v>17680</v>
-      </c>
-      <c r="D30" s="6" t="s">
+        <v>47840</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>323304</v>
+        <v>293144</v>
       </c>
     </row>
     <row r="31" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,14 +70,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,30 +78,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,32 +91,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,7 +122,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -182,15 +152,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +190,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,19 +227,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,163 +317,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +421,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,7 +475,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,26 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,29 +518,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,40 +541,40 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -583,88 +583,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1471,16 +1471,34 @@
         <v>293144</v>
       </c>
     </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="31" spans="1:5">
+      <c r="A31" s="3">
+        <v>43855</v>
+      </c>
+      <c r="B31" s="1">
+        <v>46800</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>246344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="3">
+        <v>43855</v>
+      </c>
+      <c r="C32" s="1">
+        <v>57018</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="1"/>
+        <v>303362</v>
       </c>
     </row>
     <row r="33" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -47,9 +47,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,17 +68,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,26 +98,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,6 +130,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -145,23 +145,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,23 +183,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +196,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,12 +227,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,37 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,37 +421,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,32 +475,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,18 +507,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1501,10 +1501,19 @@
         <v>303362</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>43856</v>
+      </c>
+      <c r="B33" s="1">
+        <v>33280</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="1"/>
+        <v>270082</v>
       </c>
     </row>
     <row r="34" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +68,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,6 +85,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,15 +106,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,7 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,22 +132,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,10 +150,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,8 +166,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,28 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,61 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,31 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,85 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,36 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,11 +453,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,40 +526,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,13 +686,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1020,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1516,10 +1527,19 @@
         <v>270082</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>43857</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20800</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="1"/>
+        <v>249282</v>
       </c>
     </row>
     <row r="35" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,11 +68,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,7 +91,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,7 +114,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,55 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,18 +153,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,7 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +176,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,169 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +418,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,8 +468,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -468,37 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,17 +510,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,13 +523,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,16 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,8 +1008,8 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1532,38 +1521,74 @@
         <v>43857</v>
       </c>
       <c r="B34" s="1">
-        <v>20800</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>58240</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>249282</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>211842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="3">
+        <v>43858</v>
+      </c>
+      <c r="B35" s="1">
+        <v>57200</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="1"/>
+        <v>154642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3">
+        <v>43858</v>
+      </c>
+      <c r="C36" s="1">
+        <v>183726</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="1"/>
+        <v>338368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3">
+        <v>43859</v>
+      </c>
+      <c r="B37" s="1">
+        <v>35360</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="1"/>
+        <v>303008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3">
+        <v>43859</v>
+      </c>
+      <c r="C38" s="1">
+        <v>68633</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>371641</v>
       </c>
     </row>
     <row r="39" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +68,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,11 +104,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,15 +129,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,7 +145,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,23 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,37 +214,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,37 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,145 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,16 +429,58 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -451,16 +501,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -476,60 +526,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,13 +686,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1020,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1591,10 +1602,19 @@
         <v>371641</v>
       </c>
     </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3">
+        <v>43860</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10400</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="1"/>
+        <v>361241</v>
       </c>
     </row>
     <row r="40" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -76,8 +76,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,64 +146,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,16 +161,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +185,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,9 +213,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,181 +241,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,8 +432,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,11 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,21 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,20 +517,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1607,20 +1607,29 @@
         <v>43860</v>
       </c>
       <c r="B39" s="1">
-        <v>10400</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>42640</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>361241</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>329001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3">
+        <v>43861</v>
+      </c>
+      <c r="B40" s="1">
+        <v>23920</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="1"/>
+        <v>305081</v>
       </c>
     </row>
     <row r="41" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,14 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -84,9 +76,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,39 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,37 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,35 +211,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +425,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,7 +464,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,32 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,29 +518,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,16 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1009,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1622,14 +1611,14 @@
         <v>43861</v>
       </c>
       <c r="B40" s="1">
-        <v>23920</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>57200</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>305081</v>
+        <v>271801</v>
       </c>
     </row>
     <row r="41" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -47,11 +47,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,127 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,106 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,22 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,79 +235,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,103 +391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +438,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,11 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,11 +520,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,152 +531,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,13 +686,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1019,10 @@
   <sheetPr/>
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1621,45 +1634,81 @@
         <v>271801</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="1" t="str">
-        <f t="shared" ref="E44:E75" si="2">IF(A44="","",SUM(E43-B44+C44))</f>
-        <v/>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3">
+        <v>43862</v>
+      </c>
+      <c r="C41" s="1">
+        <v>73913</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="1"/>
+        <v>345714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3">
+        <v>43862</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41080</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="1"/>
+        <v>304634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3">
+        <v>43863</v>
+      </c>
+      <c r="C43" s="1">
+        <v>38012</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1">
+        <f>IF(A43="","",SUM(E42-B43+C43))</f>
+        <v>342646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3">
+        <v>43863</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20800</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1">
+        <f>IF(A44="","",SUM(E43-B44+C44))</f>
+        <v>321846</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A45="","",SUM(E44-B45+C45))</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(A46="","",SUM(E45-B46+C46))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E44:E75" si="2">IF(A47="","",SUM(E46-B47+C47))</f>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="22">
@@ -77,45 +77,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,9 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,7 +147,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,37 +161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -205,11 +177,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,6 +198,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,41 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +440,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,16 +475,45 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +526,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,9 +1020,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1210,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:E43" si="1">IF(A12="","",SUM(E11-B12+C12))</f>
+        <f t="shared" ref="E12:E46" si="1">IF(A12="","",SUM(E11-B12+C12))</f>
         <v>309315</v>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="1">
-        <f>IF(A43="","",SUM(E42-B43+C43))</f>
+        <f t="shared" si="1"/>
         <v>342646</v>
       </c>
     </row>
@@ -1684,26 +1684,44 @@
         <v>43863</v>
       </c>
       <c r="B44" s="1">
-        <v>20800</v>
-      </c>
-      <c r="D44" s="6" t="s">
+        <v>53040</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1">
         <f>IF(A44="","",SUM(E43-B44+C44))</f>
-        <v>321846</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="1" t="str">
+        <v>289606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3">
+        <v>43863</v>
+      </c>
+      <c r="C45" s="1">
+        <v>105590</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1">
         <f>IF(A45="","",SUM(E44-B45+C45))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="1" t="str">
+        <v>395196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3">
+        <v>43864</v>
+      </c>
+      <c r="B46" s="1">
+        <v>11440</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
         <f>IF(A46="","",SUM(E45-B46+C46))</f>
-        <v/>
+        <v>383756</v>
       </c>
     </row>
     <row r="47" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,7 +77,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,9 +97,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +183,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,97 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,43 +235,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,139 +397,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +429,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,17 +477,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,58 +526,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1020,9 +1020,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1690,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1">
-        <f>IF(A44="","",SUM(E43-B44+C44))</f>
+        <f t="shared" si="1"/>
         <v>289606</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="1">
-        <f>IF(A45="","",SUM(E44-B45+C45))</f>
+        <f t="shared" si="1"/>
         <v>395196</v>
       </c>
     </row>
@@ -1714,29 +1714,50 @@
         <v>43864</v>
       </c>
       <c r="B46" s="1">
-        <v>11440</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>45760</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="1">
-        <f>IF(A46="","",SUM(E45-B46+C46))</f>
-        <v>383756</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>349436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3">
+        <v>43865</v>
+      </c>
+      <c r="B47" s="1">
+        <v>47840</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1">
         <f t="shared" ref="E44:E75" si="2">IF(A47="","",SUM(E46-B47+C47))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="5:5">
-      <c r="E48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
+        <v>301596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3">
+        <v>43866</v>
+      </c>
+      <c r="C48" s="1">
+        <v>203788</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>505384</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -76,15 +76,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,15 +130,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,46 +199,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,53 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,13 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,163 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,6 +468,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -456,8 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,30 +518,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -511,35 +526,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1020,9 +1020,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1754,25 +1754,49 @@
         <v>505384</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:5">
-      <c r="E50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="5:5">
-      <c r="E51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3">
+        <v>43866</v>
+      </c>
+      <c r="B49" s="1">
+        <v>26000</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>479384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="3">
+        <v>43867</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>433624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="3">
+        <v>43868</v>
+      </c>
+      <c r="B51" s="1">
+        <v>29120</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>404504</v>
       </c>
     </row>
     <row r="52" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,11 +68,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,7 +114,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,68 +169,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -170,29 +178,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +233,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +329,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,25 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,85 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +418,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,6 +484,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -464,54 +504,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +523,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,16 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,7 +1011,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1789,20 +1778,29 @@
         <v>43868</v>
       </c>
       <c r="B51" s="1">
-        <v>29120</v>
-      </c>
-      <c r="D51" s="6" t="s">
+        <v>68640</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="2"/>
-        <v>404504</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5">
-      <c r="E52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>364984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3">
+        <v>43869</v>
+      </c>
+      <c r="B52" s="1">
+        <v>54080</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>310904</v>
       </c>
     </row>
     <row r="53" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -47,9 +47,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,9 +68,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,29 +85,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,33 +98,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,10 +115,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,16 +168,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,19 +227,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +329,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,151 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +418,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,17 +466,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,42 +514,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,127 +544,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,7 +1011,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1803,52 +1803,124 @@
         <v>310904</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
-      <c r="E53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="5:5">
-      <c r="E55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="5:5">
-      <c r="E56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="5:5">
-      <c r="E57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="5:5">
-      <c r="E58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="5:5">
-      <c r="E60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="53" spans="1:5">
+      <c r="A53" s="3">
+        <v>43870</v>
+      </c>
+      <c r="B53" s="1">
+        <v>46280</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="2"/>
+        <v>264624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3">
+        <v>43871</v>
+      </c>
+      <c r="B54" s="1">
+        <v>28080</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="2"/>
+        <v>236544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="3">
+        <v>43871</v>
+      </c>
+      <c r="C55" s="1">
+        <v>111925</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>348469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3">
+        <v>43872</v>
+      </c>
+      <c r="B56" s="1">
+        <v>42640</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="2"/>
+        <v>305829</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3">
+        <v>43873</v>
+      </c>
+      <c r="B57" s="1">
+        <v>58760</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>247069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>43874</v>
+      </c>
+      <c r="B58" s="1">
+        <v>42640</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="2"/>
+        <v>204429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>43875</v>
+      </c>
+      <c r="B59" s="1">
+        <v>47840</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="2"/>
+        <v>156589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="3">
+        <v>43875</v>
+      </c>
+      <c r="C60" s="1">
+        <v>32733</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="2"/>
+        <v>189322</v>
       </c>
     </row>
     <row r="61" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +68,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,6 +106,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,24 +145,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,17 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,65 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,37 +235,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,25 +361,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,13 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,97 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +426,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,17 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,50 +522,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -523,152 +531,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,13 +686,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,9 +1020,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1923,28 +1934,64 @@
         <v>189322</v>
       </c>
     </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="5:5">
-      <c r="E62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="5:5">
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3">
+        <v>43876</v>
+      </c>
+      <c r="C61" s="1">
+        <v>139378</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="2"/>
+        <v>328700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="3">
+        <v>43876</v>
+      </c>
+      <c r="C62" s="1">
+        <v>131987</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="2"/>
+        <v>460687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="3">
+        <v>43876</v>
+      </c>
+      <c r="B63" s="1">
+        <v>48880</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="2"/>
+        <v>411807</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="3">
+        <v>43877</v>
+      </c>
+      <c r="B64" s="1">
+        <v>15600</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="2"/>
+        <v>396207</v>
       </c>
     </row>
     <row r="65" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -48,8 +48,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -83,6 +83,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,9 +114,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +138,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,45 +177,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -170,14 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,29 +207,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,31 +235,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,11 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,42 +526,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1020,9 +1020,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1984,26 +1984,44 @@
         <v>43877</v>
       </c>
       <c r="B64" s="1">
-        <v>15600</v>
-      </c>
-      <c r="D64" s="6" t="s">
+        <v>67600</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="1">
         <f t="shared" si="2"/>
-        <v>396207</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>344207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>43878</v>
+      </c>
+      <c r="B65" s="1">
+        <v>38480</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="2"/>
+        <v>305727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>43879</v>
+      </c>
+      <c r="B66" s="1">
+        <v>11440</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="2"/>
+        <v>294287</v>
       </c>
     </row>
     <row r="67" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -47,8 +47,8 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="22">
@@ -77,6 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -84,10 +91,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,6 +114,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,15 +130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -130,15 +139,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,9 +160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,11 +175,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,13 +197,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -206,15 +206,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,61 +235,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,121 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,31 +433,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +460,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,21 +526,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2014,26 +2014,44 @@
         <v>43879</v>
       </c>
       <c r="B66" s="1">
-        <v>11440</v>
-      </c>
-      <c r="D66" s="6" t="s">
+        <v>24960</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1">
         <f t="shared" si="2"/>
-        <v>294287</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>280767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="3">
+        <v>43880</v>
+      </c>
+      <c r="C67" s="1">
+        <v>137267</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="2"/>
+        <v>418034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>43880</v>
+      </c>
+      <c r="B68" s="1">
+        <v>28080</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="2"/>
+        <v>389954</v>
       </c>
     </row>
     <row r="69" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,8 +91,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -106,19 +122,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,16 +161,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,21 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,22 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,22 +199,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,187 +227,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,26 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,6 +456,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,17 +499,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,9 +685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,9 +1009,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2044,32 +2033,59 @@
         <v>43880</v>
       </c>
       <c r="B68" s="1">
-        <v>28080</v>
-      </c>
-      <c r="D68" s="6" t="s">
+        <v>75920</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="2"/>
-        <v>389954</v>
-      </c>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>342114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>43881</v>
+      </c>
+      <c r="B69" s="1">
+        <v>34320</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="2"/>
+        <v>307794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="3">
+        <v>43882</v>
+      </c>
+      <c r="C70" s="1">
+        <v>147826</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="2"/>
+        <v>455620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="3">
+        <v>43882</v>
+      </c>
+      <c r="B71" s="1">
+        <v>29120</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="2"/>
+        <v>426500</v>
       </c>
     </row>
     <row r="72" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
@@ -69,16 +69,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,8 +90,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,11 +114,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,16 +153,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,30 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +227,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,175 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,11 +421,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,41 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +501,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,9 +1009,9 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2088,55 +2088,96 @@
         <v>426500</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="5:5">
+    <row r="72" spans="1:5">
+      <c r="A72" s="3">
+        <v>43883</v>
+      </c>
+      <c r="B72" s="1">
+        <v>54080</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="2"/>
+        <v>372420</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="3">
+        <v>43884</v>
+      </c>
+      <c r="B73" s="1">
+        <v>38480</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="2"/>
+        <v>333940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="3">
+        <v>43885</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43680</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="2"/>
+        <v>290260</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="3">
+        <v>43885</v>
+      </c>
+      <c r="C75" s="1">
+        <v>52795</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="2"/>
+        <v>343055</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="3"/>
       <c r="E76" s="1" t="str">
         <f t="shared" ref="E76:E107" si="3">IF(A76="","",SUM(E75-B76+C76))</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:5">
+    <row r="77" spans="1:5">
+      <c r="A77" s="3"/>
       <c r="E77" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="5:5">
+    <row r="78" spans="1:5">
+      <c r="A78" s="3"/>
       <c r="E78" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="5:5">
+    <row r="79" spans="1:5">
+      <c r="A79" s="3"/>
       <c r="E79" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="5:5">
+    <row r="80" spans="1:5">
+      <c r="A80" s="3"/>
       <c r="E80" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +68,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -77,30 +101,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,33 +124,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,36 +161,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -199,14 +184,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,12 +235,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,169 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +426,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,6 +464,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,26 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,40 +526,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1022,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2149,17 +2160,33 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="3"/>
-      <c r="E76" s="1" t="str">
+      <c r="A76" s="3">
+        <v>43886</v>
+      </c>
+      <c r="B76" s="1">
+        <v>38480</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="1">
         <f t="shared" ref="E76:E107" si="3">IF(A76="","",SUM(E75-B76+C76))</f>
-        <v/>
+        <v>304575</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="3"/>
-      <c r="E77" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="A77" s="3">
+        <v>43887</v>
+      </c>
+      <c r="B77" s="1">
+        <v>27040</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="3"/>
+        <v>277535</v>
       </c>
     </row>
     <row r="78" spans="1:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,24 +68,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -100,21 +91,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -124,14 +100,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,43 +138,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -192,6 +153,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -213,12 +182,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,19 +227,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,163 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +462,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,15 +489,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,9 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,9 +685,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,7 +1011,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2179,28 +2168,44 @@
         <v>43887</v>
       </c>
       <c r="B77" s="1">
-        <v>27040</v>
-      </c>
-      <c r="D77" s="6" t="s">
+        <v>46800</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="1">
         <f t="shared" si="3"/>
-        <v>277535</v>
+        <v>257775</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="3"/>
-      <c r="E78" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="A78" s="3">
+        <v>43888</v>
+      </c>
+      <c r="B78" s="1">
+        <v>33280</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="3"/>
+        <v>224495</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="3"/>
-      <c r="E79" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="A79" s="3">
+        <v>43889</v>
+      </c>
+      <c r="B79" s="1">
+        <v>40560</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="3"/>
+        <v>183935</v>
       </c>
     </row>
     <row r="80" spans="1:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -51,7 +51,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,15 +68,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -91,6 +129,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -100,22 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +155,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -151,32 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,21 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,21 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -456,39 +449,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +468,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -518,12 +493,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +693,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,12 +1017,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78:D79"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2159,7 +2170,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" ref="E76:E107" si="3">IF(A76="","",SUM(E75-B76+C76))</f>
+        <f>IF(A76="","",SUM(E75-B76+C76))</f>
         <v>304575</v>
       </c>
     </row>
@@ -2174,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E77:E82" si="3">IF(A77="","",SUM(E76-B77+C77))</f>
         <v>257775</v>
       </c>
     </row>
@@ -2209,429 +2220,470 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="3"/>
-      <c r="E80" s="1" t="str">
+      <c r="A80" s="3">
+        <v>43891</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44720</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>139215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="3">
+        <v>43891</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42236</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1">
+        <f>IF(A81="","",SUM(E80-B81+C81))</f>
+        <v>181451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="3">
+        <v>43892</v>
+      </c>
+      <c r="C82" s="1">
+        <v>40018</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1">
+        <f>IF(A82="","",SUM(E81-B82+C82))</f>
+        <v>221469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="3">
+        <v>43892</v>
+      </c>
+      <c r="B83" s="1">
+        <v>29120</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="1">
+        <f>IF(A83="","",SUM(E82-B83+C83))</f>
+        <v>192349</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(A84="","",SUM(E83-B84+C84))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E83:E108" si="4">IF(A85="","",SUM(E84-B85+C85))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" s="1" t="str">
-        <f t="shared" ref="E108:E150" si="4">IF(A108="","",SUM(E107-B108+C108))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E109:E151" si="5">IF(A109="","",SUM(E108-B109+C109))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="1" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,17 +68,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,7 +106,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,29 +122,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -137,21 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -161,30 +145,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -199,7 +160,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,49 +227,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,73 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,55 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,15 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +437,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -464,6 +471,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +501,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -493,53 +518,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,131 +544,131 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,16 +678,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,9 +1009,9 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1735,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ref="E44:E75" si="2">IF(A47="","",SUM(E46-B47+C47))</f>
+        <f t="shared" ref="E44:E76" si="2">IF(A47="","",SUM(E46-B47+C47))</f>
         <v>301596</v>
       </c>
     </row>
@@ -2170,7 +2159,7 @@
         <v>7</v>
       </c>
       <c r="E76" s="1">
-        <f>IF(A76="","",SUM(E75-B76+C76))</f>
+        <f t="shared" si="2"/>
         <v>304575</v>
       </c>
     </row>
@@ -2185,7 +2174,7 @@
         <v>7</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" ref="E77:E82" si="3">IF(A77="","",SUM(E76-B77+C77))</f>
+        <f t="shared" ref="E77:E84" si="3">IF(A77="","",SUM(E76-B77+C77))</f>
         <v>257775</v>
       </c>
     </row>
@@ -2245,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="E81" s="1">
-        <f>IF(A81="","",SUM(E80-B81+C81))</f>
+        <f t="shared" si="3"/>
         <v>181451</v>
       </c>
     </row>
@@ -2260,7 +2249,7 @@
         <v>6</v>
       </c>
       <c r="E82" s="1">
-        <f>IF(A82="","",SUM(E81-B82+C82))</f>
+        <f t="shared" si="3"/>
         <v>221469</v>
       </c>
     </row>
@@ -2269,20 +2258,29 @@
         <v>43892</v>
       </c>
       <c r="B83" s="1">
-        <v>29120</v>
-      </c>
-      <c r="D83" s="6" t="s">
+        <v>49920</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1">
-        <f>IF(A83="","",SUM(E82-B83+C83))</f>
-        <v>192349</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="1" t="str">
-        <f>IF(A84="","",SUM(E83-B84+C84))</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>171549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="3">
+        <v>43893</v>
+      </c>
+      <c r="C84" s="1">
+        <v>15838</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="3"/>
+        <v>187387</v>
       </c>
     </row>
     <row r="85" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,16 +68,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,21 +85,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,6 +107,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -128,9 +122,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,28 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -182,24 +198,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +227,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,79 +305,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,85 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +421,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,11 +447,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,7 +481,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,19 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,13 +523,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1009,9 +1009,9 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2283,16 +2283,34 @@
         <v>187387</v>
       </c>
     </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="1" t="str">
+    <row r="85" spans="1:5">
+      <c r="A85" s="3">
+        <v>43893</v>
+      </c>
+      <c r="B85" s="1">
+        <v>38480</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="1">
         <f t="shared" ref="E83:E108" si="4">IF(A85="","",SUM(E84-B85+C85))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="1" t="str">
+        <v>148907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="3">
+        <v>43894</v>
+      </c>
+      <c r="C86" s="1">
+        <v>103900</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>252807</v>
       </c>
     </row>
     <row r="87" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,26 +68,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,9 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,7 +100,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,9 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,30 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,14 +153,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -198,6 +167,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -205,8 +204,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +235,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,31 +277,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,139 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +426,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,6 +464,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -458,39 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +506,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +693,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,9 +1023,9 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2313,34 +2327,76 @@
         <v>252807</v>
       </c>
     </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="1" t="str">
+    <row r="87" spans="1:5">
+      <c r="A87" s="3">
+        <v>43894</v>
+      </c>
+      <c r="B87" s="1">
+        <v>54080</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="1" t="str">
+        <v>198727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="3">
+        <v>43895</v>
+      </c>
+      <c r="B88" s="1">
+        <v>60320</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="1" t="str">
+        <v>138407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="3">
+        <v>43896</v>
+      </c>
+      <c r="C89" s="1">
+        <v>17211</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="1" t="str">
+        <v>155618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="3">
+        <v>43896</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="1" t="str">
+        <v>155618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="3">
+        <v>43896</v>
+      </c>
+      <c r="B91" s="6">
+        <v>20800</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>134818</v>
       </c>
     </row>
     <row r="92" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -51,7 +51,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,22 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,16 +75,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,40 +99,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,6 +114,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -175,8 +129,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,13 +176,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -235,49 +227,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,133 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,21 +421,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -460,30 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,33 +477,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,9 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1014,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2376,12 +2365,15 @@
       <c r="A90" s="3">
         <v>43896</v>
       </c>
+      <c r="C90" s="1">
+        <v>36956</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="1">
         <f t="shared" si="4"/>
-        <v>155618</v>
+        <v>192574</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2389,26 +2381,44 @@
         <v>43896</v>
       </c>
       <c r="B91" s="6">
-        <v>20800</v>
-      </c>
-      <c r="D91" s="7" t="s">
+        <v>41600</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="1">
         <f t="shared" si="4"/>
-        <v>134818</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="1" t="str">
+        <v>150974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="3">
+        <v>43897</v>
+      </c>
+      <c r="B92" s="1">
+        <v>18720</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="1" t="str">
+        <v>132254</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="3">
+        <v>43897</v>
+      </c>
+      <c r="C93" s="1">
+        <v>36956</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>169210</v>
       </c>
     </row>
     <row r="94" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +68,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,71 +197,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,57 +212,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -227,6 +235,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,19 +259,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,31 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,115 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +429,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,32 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -501,6 +503,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -509,24 +526,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,134 +549,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -688,6 +696,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1025,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2396,14 +2407,14 @@
         <v>43897</v>
       </c>
       <c r="B92" s="1">
-        <v>18720</v>
+        <v>45760</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="1">
         <f t="shared" si="4"/>
-        <v>132254</v>
+        <v>105214</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2418,13 +2429,22 @@
       </c>
       <c r="E93" s="1">
         <f t="shared" si="4"/>
-        <v>169210</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="1" t="str">
+        <v>142170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="3">
+        <v>43898</v>
+      </c>
+      <c r="B94" s="1">
+        <v>18720</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>123450</v>
       </c>
     </row>
     <row r="95" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -46,10 +46,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,6 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -84,7 +91,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,31 +112,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,20 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -158,8 +150,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -175,50 +207,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,103 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,79 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,13 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,32 +462,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,20 +517,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2437,26 +2437,44 @@
         <v>43898</v>
       </c>
       <c r="B94" s="1">
-        <v>18720</v>
-      </c>
-      <c r="D94" s="7" t="s">
+        <v>46280</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="1">
         <f t="shared" si="4"/>
-        <v>123450</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="1" t="str">
+        <v>95890</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="3">
+        <v>43899</v>
+      </c>
+      <c r="C95" s="1">
+        <v>221527</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="1" t="str">
+        <v>317417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="3">
+        <v>43899</v>
+      </c>
+      <c r="B96" s="1">
+        <v>33280</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>284137</v>
       </c>
     </row>
     <row r="97" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -91,16 +91,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,14 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +130,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -144,6 +146,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -158,43 +191,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,20 +219,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,17 +429,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,15 +464,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -526,15 +511,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,127 +552,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1023,9 +1023,9 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3">
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3">
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="C3" s="1">
         <v>105590</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3">
-        <v>43836</v>
+        <v>44202</v>
       </c>
       <c r="B4" s="1">
         <v>69680</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="C5" s="1">
         <v>10559</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="C6" s="1">
         <v>45404</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>43837</v>
+        <v>44203</v>
       </c>
       <c r="B7" s="1">
         <v>43680</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
-        <v>43838</v>
+        <v>44204</v>
       </c>
       <c r="B8" s="1">
         <v>57200</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>43839</v>
+        <v>44205</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1">
@@ -1174,7 +1174,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3">
-        <v>43839</v>
+        <v>44205</v>
       </c>
       <c r="B10" s="1">
         <v>18720</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
-        <v>43840</v>
+        <v>44206</v>
       </c>
       <c r="B11" s="1">
         <v>38480</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="C12" s="1">
         <v>142546</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3">
-        <v>43841</v>
+        <v>44207</v>
       </c>
       <c r="B13" s="1">
         <v>47320</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>43842</v>
+        <v>44208</v>
       </c>
       <c r="B14" s="1">
         <v>61360</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="B15" s="1">
         <v>60320</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
-        <v>43843</v>
+        <v>44209</v>
       </c>
       <c r="C16" s="1">
         <v>53851</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
-        <v>43844</v>
+        <v>44210</v>
       </c>
       <c r="B17" s="1">
         <v>47840</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
-        <v>43844</v>
+        <v>44210</v>
       </c>
       <c r="C18" s="1">
         <v>52795</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
-        <v>43845</v>
+        <v>44211</v>
       </c>
       <c r="B19" s="1">
         <v>30160</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3">
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="B20" s="1">
         <v>46800</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>43846</v>
+        <v>44212</v>
       </c>
       <c r="C21" s="1">
         <v>369564</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3">
-        <v>43847</v>
+        <v>44213</v>
       </c>
       <c r="B22" s="1">
         <v>58240</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3">
-        <v>43848</v>
+        <v>44214</v>
       </c>
       <c r="B23" s="1">
         <v>50960</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3">
-        <v>43849</v>
+        <v>44215</v>
       </c>
       <c r="B24" s="1">
         <v>34320</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
-        <v>43850</v>
+        <v>44216</v>
       </c>
       <c r="B25" s="1">
         <v>40560</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="B26" s="1">
         <v>66560</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>43851</v>
+        <v>44217</v>
       </c>
       <c r="C27" s="1">
         <v>211179</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3">
-        <v>43852</v>
+        <v>44218</v>
       </c>
       <c r="B28" s="1">
         <v>58240</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3">
-        <v>43853</v>
+        <v>44219</v>
       </c>
       <c r="B29" s="1">
         <v>53040</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3">
-        <v>43854</v>
+        <v>44220</v>
       </c>
       <c r="B30" s="1">
         <v>47840</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
-        <v>43855</v>
+        <v>44221</v>
       </c>
       <c r="B31" s="1">
         <v>46800</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3">
-        <v>43855</v>
+        <v>44221</v>
       </c>
       <c r="C32" s="1">
         <v>57018</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3">
-        <v>43856</v>
+        <v>44222</v>
       </c>
       <c r="B33" s="1">
         <v>33280</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3">
-        <v>43857</v>
+        <v>44223</v>
       </c>
       <c r="B34" s="1">
         <v>58240</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3">
-        <v>43858</v>
+        <v>44224</v>
       </c>
       <c r="B35" s="1">
         <v>57200</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
-        <v>43858</v>
+        <v>44224</v>
       </c>
       <c r="C36" s="1">
         <v>183726</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3">
-        <v>43859</v>
+        <v>44225</v>
       </c>
       <c r="B37" s="1">
         <v>35360</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3">
-        <v>43859</v>
+        <v>44225</v>
       </c>
       <c r="C38" s="1">
         <v>68633</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3">
-        <v>43860</v>
+        <v>44226</v>
       </c>
       <c r="B39" s="1">
         <v>42640</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3">
-        <v>43861</v>
+        <v>44227</v>
       </c>
       <c r="B40" s="1">
         <v>57200</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="C41" s="1">
         <v>73913</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B42" s="1">
         <v>41080</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>43863</v>
+        <v>44229</v>
       </c>
       <c r="C43" s="1">
         <v>38012</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>43863</v>
+        <v>44229</v>
       </c>
       <c r="B44" s="1">
         <v>53040</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>43863</v>
+        <v>44229</v>
       </c>
       <c r="C45" s="1">
         <v>105590</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>43864</v>
+        <v>44230</v>
       </c>
       <c r="B46" s="1">
         <v>45760</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>43865</v>
+        <v>44231</v>
       </c>
       <c r="B47" s="1">
         <v>47840</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>43866</v>
+        <v>44232</v>
       </c>
       <c r="C48" s="1">
         <v>203788</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3">
-        <v>43866</v>
+        <v>44232</v>
       </c>
       <c r="B49" s="1">
         <v>26000</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3">
-        <v>43867</v>
+        <v>44233</v>
       </c>
       <c r="B50" s="1">
         <v>45760</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3">
-        <v>43868</v>
+        <v>44234</v>
       </c>
       <c r="B51" s="1">
         <v>68640</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3">
-        <v>43869</v>
+        <v>44235</v>
       </c>
       <c r="B52" s="1">
         <v>54080</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3">
-        <v>43870</v>
+        <v>44236</v>
       </c>
       <c r="B53" s="1">
         <v>46280</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3">
-        <v>43871</v>
+        <v>44237</v>
       </c>
       <c r="B54" s="1">
         <v>28080</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>43871</v>
+        <v>44237</v>
       </c>
       <c r="C55" s="1">
         <v>111925</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>43872</v>
+        <v>44238</v>
       </c>
       <c r="B56" s="1">
         <v>42640</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>43873</v>
+        <v>44239</v>
       </c>
       <c r="B57" s="1">
         <v>58760</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
-        <v>43874</v>
+        <v>44240</v>
       </c>
       <c r="B58" s="1">
         <v>42640</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3">
-        <v>43875</v>
+        <v>44241</v>
       </c>
       <c r="B59" s="1">
         <v>47840</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3">
-        <v>43875</v>
+        <v>44241</v>
       </c>
       <c r="C60" s="1">
         <v>32733</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3">
-        <v>43876</v>
+        <v>44242</v>
       </c>
       <c r="C61" s="1">
         <v>139378</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3">
-        <v>43876</v>
+        <v>44242</v>
       </c>
       <c r="C62" s="1">
         <v>131987</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3">
-        <v>43876</v>
+        <v>44242</v>
       </c>
       <c r="B63" s="1">
         <v>48880</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3">
-        <v>43877</v>
+        <v>44243</v>
       </c>
       <c r="B64" s="1">
         <v>67600</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3">
-        <v>43878</v>
+        <v>44244</v>
       </c>
       <c r="B65" s="1">
         <v>38480</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3">
-        <v>43879</v>
+        <v>44245</v>
       </c>
       <c r="B66" s="1">
         <v>24960</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3">
-        <v>43880</v>
+        <v>44246</v>
       </c>
       <c r="C67" s="1">
         <v>137267</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3">
-        <v>43880</v>
+        <v>44246</v>
       </c>
       <c r="B68" s="1">
         <v>75920</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3">
-        <v>43881</v>
+        <v>44247</v>
       </c>
       <c r="B69" s="1">
         <v>34320</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3">
-        <v>43882</v>
+        <v>44248</v>
       </c>
       <c r="C70" s="1">
         <v>147826</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3">
-        <v>43882</v>
+        <v>44248</v>
       </c>
       <c r="B71" s="1">
         <v>29120</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>43883</v>
+        <v>44249</v>
       </c>
       <c r="B72" s="1">
         <v>54080</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>43884</v>
+        <v>44250</v>
       </c>
       <c r="B73" s="1">
         <v>38480</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3">
-        <v>43885</v>
+        <v>44251</v>
       </c>
       <c r="B74" s="1">
         <v>43680</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3">
-        <v>43885</v>
+        <v>44251</v>
       </c>
       <c r="C75" s="1">
         <v>52795</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3">
-        <v>43886</v>
+        <v>44252</v>
       </c>
       <c r="B76" s="1">
         <v>38480</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3">
-        <v>43887</v>
+        <v>44253</v>
       </c>
       <c r="B77" s="1">
         <v>46800</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3">
-        <v>43888</v>
+        <v>44254</v>
       </c>
       <c r="B78" s="1">
         <v>33280</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3">
-        <v>43889</v>
+        <v>44255</v>
       </c>
       <c r="B79" s="1">
         <v>40560</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B80" s="1">
         <v>44720</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="C81" s="1">
         <v>42236</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3">
-        <v>43892</v>
+        <v>44257</v>
       </c>
       <c r="C82" s="1">
         <v>40018</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3">
-        <v>43892</v>
+        <v>44257</v>
       </c>
       <c r="B83" s="1">
         <v>49920</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3">
-        <v>43893</v>
+        <v>44258</v>
       </c>
       <c r="C84" s="1">
         <v>15838</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3">
-        <v>43893</v>
+        <v>44258</v>
       </c>
       <c r="B85" s="1">
         <v>38480</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3">
-        <v>43894</v>
+        <v>44259</v>
       </c>
       <c r="C86" s="1">
         <v>103900</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3">
-        <v>43894</v>
+        <v>44259</v>
       </c>
       <c r="B87" s="1">
         <v>54080</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3">
-        <v>43895</v>
+        <v>44260</v>
       </c>
       <c r="B88" s="1">
         <v>60320</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3">
-        <v>43896</v>
+        <v>44261</v>
       </c>
       <c r="C89" s="1">
         <v>17211</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3">
-        <v>43896</v>
+        <v>44261</v>
       </c>
       <c r="C90" s="1">
         <v>36956</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3">
-        <v>43896</v>
+        <v>44261</v>
       </c>
       <c r="B91" s="6">
         <v>41600</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3">
-        <v>43897</v>
+        <v>44262</v>
       </c>
       <c r="B92" s="1">
         <v>45760</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3">
-        <v>43897</v>
+        <v>44262</v>
       </c>
       <c r="C93" s="1">
         <v>36956</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3">
-        <v>43898</v>
+        <v>44263</v>
       </c>
       <c r="B94" s="1">
         <v>46280</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3">
-        <v>43899</v>
+        <v>44264</v>
       </c>
       <c r="C95" s="1">
         <v>221527</v>
@@ -2464,65 +2464,137 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3">
-        <v>43899</v>
+        <v>44264</v>
       </c>
       <c r="B96" s="1">
-        <v>33280</v>
-      </c>
-      <c r="D96" s="7" t="s">
+        <v>52000</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="1">
         <f t="shared" si="4"/>
-        <v>284137</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="1" t="str">
+        <v>265417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B97" s="1">
+        <v>20800</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="1" t="str">
+        <v>244617</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B98" s="1">
+        <v>65520</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="1" t="str">
+        <v>179097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="3">
+        <v>44267</v>
+      </c>
+      <c r="C99" s="1">
+        <v>28509</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="1" t="str">
+        <v>207606</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="3">
+        <v>44267</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="1" t="str">
+        <v>161846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3">
+        <v>44268</v>
+      </c>
+      <c r="C101" s="1">
+        <v>47515</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="1" t="str">
+        <v>209361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="3">
+        <v>44268</v>
+      </c>
+      <c r="B102" s="1">
+        <v>42120</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="1" t="str">
+        <v>167241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3">
+        <v>44269</v>
+      </c>
+      <c r="B103" s="1">
+        <v>32240</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="1" t="str">
+        <v>135001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="3">
+        <v>44269</v>
+      </c>
+      <c r="C104" s="1">
+        <v>42236</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>177237</v>
       </c>
     </row>
     <row r="105" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,18 +68,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,8 +106,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -113,8 +152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,11 +168,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,62 +191,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,14 +211,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -235,25 +227,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,91 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,61 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +418,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,32 +445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +480,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -503,26 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,15 +523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,134 +541,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -696,9 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,9 +1012,9 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2572,14 +2561,14 @@
         <v>44269</v>
       </c>
       <c r="B103" s="1">
-        <v>32240</v>
-      </c>
-      <c r="D103" s="7" t="s">
+        <v>50960</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="1">
         <f t="shared" si="4"/>
-        <v>135001</v>
+        <v>116281</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2594,91 +2583,217 @@
       </c>
       <c r="E104" s="1">
         <f t="shared" si="4"/>
-        <v>177237</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="1" t="str">
+        <v>158517</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="3">
+        <v>44270</v>
+      </c>
+      <c r="B105" s="1">
+        <v>44720</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="1" t="str">
+        <v>113797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="3">
+        <v>44270</v>
+      </c>
+      <c r="C106" s="1">
+        <v>31677</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="1" t="str">
+        <v>145474</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3">
+        <v>44271</v>
+      </c>
+      <c r="B107" s="1">
+        <v>59280</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="1" t="str">
+        <v>86194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="3">
+        <v>44271</v>
+      </c>
+      <c r="C108" s="1">
+        <v>23464</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="1" t="str">
+        <v>109658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="3">
+        <v>44271</v>
+      </c>
+      <c r="C109" s="1">
+        <v>52795</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1">
         <f t="shared" ref="E109:E151" si="5">IF(A109="","",SUM(E108-B109+C109))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="5:5">
-      <c r="E115" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>162453</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="3">
+        <v>44272</v>
+      </c>
+      <c r="B110" s="1">
+        <v>27040</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="5"/>
+        <v>135413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="3">
+        <v>44273</v>
+      </c>
+      <c r="B111" s="1">
+        <v>29120</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="5"/>
+        <v>106293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="3">
+        <v>44273</v>
+      </c>
+      <c r="C112" s="1">
+        <v>26397</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1">
+        <f t="shared" si="5"/>
+        <v>132690</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="3">
+        <v>44274</v>
+      </c>
+      <c r="B113" s="1">
+        <v>48880</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1">
+        <f t="shared" si="5"/>
+        <v>83810</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="3">
+        <v>44275</v>
+      </c>
+      <c r="C114" s="1">
+        <v>126708</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1">
+        <f t="shared" si="5"/>
+        <v>210518</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="3">
+        <v>44275</v>
+      </c>
+      <c r="B115" s="1">
+        <v>50960</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1">
+        <f t="shared" si="5"/>
+        <v>159558</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B116" s="1">
+        <v>41600</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" si="5"/>
+        <v>117958</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="3">
+        <v>44277</v>
+      </c>
+      <c r="C117" s="1">
+        <v>22174</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="5"/>
+        <v>140132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="3">
+        <v>44277</v>
+      </c>
+      <c r="B118" s="1">
+        <v>46800</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="5"/>
+        <v>93332</v>
       </c>
     </row>
     <row r="119" spans="5:5">

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
@@ -68,27 +68,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,62 +82,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +99,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,9 +121,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,14 +206,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +227,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,37 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,127 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +418,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,7 +479,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,32 +489,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,24 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +523,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,12 +1009,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2297,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" ref="E83:E108" si="4">IF(A85="","",SUM(E84-B85+C85))</f>
+        <f t="shared" ref="E83:E118" si="4">IF(A85="","",SUM(E84-B85+C85))</f>
         <v>148907</v>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" ref="E109:E151" si="5">IF(A109="","",SUM(E108-B109+C109))</f>
+        <f t="shared" si="4"/>
         <v>162453</v>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>135413</v>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>106293</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>132690</v>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="E113" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>83810</v>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>210518</v>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="E115" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>159558</v>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="E116" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>117958</v>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
         <v>6</v>
       </c>
       <c r="E117" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>140132</v>
       </c>
     </row>
@@ -2792,205 +2792,289 @@
         <v>7</v>
       </c>
       <c r="E118" s="1">
+        <f t="shared" si="4"/>
+        <v>93332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="3">
+        <v>44278</v>
+      </c>
+      <c r="C119" s="1">
+        <v>35900</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" ref="E119:E124" si="5">IF(A119="","",SUM(E118-B119+C119))</f>
+        <v>129232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="3">
+        <v>44278</v>
+      </c>
+      <c r="C120" s="1">
+        <v>31677</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1">
         <f t="shared" si="5"/>
-        <v>93332</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="1" t="str">
+        <v>160909</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="3">
+        <v>44278</v>
+      </c>
+      <c r="C121" s="1">
+        <v>15838</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="1" t="str">
+        <v>176747</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="3">
+        <v>44278</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45760</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="1" t="str">
+        <v>130987</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B123" s="1">
+        <v>23920</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="1" t="str">
+        <v>107067</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="3">
+        <v>44279</v>
+      </c>
+      <c r="C124" s="1">
+        <v>21118</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>128185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="3">
+        <v>44280</v>
+      </c>
+      <c r="C125" s="1">
+        <v>38857</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1">
+        <f t="shared" ref="E121:E152" si="6">IF(A125="","",SUM(E124-B125+C125))</f>
+        <v>167042</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="3">
+        <v>44280</v>
+      </c>
+      <c r="B126" s="1">
+        <v>34320</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="1">
+        <f t="shared" si="6"/>
+        <v>132722</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="3">
+        <v>44280</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1">
+        <f t="shared" si="6"/>
+        <v>132722</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="1" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -45,11 +45,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,22 +69,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,8 +97,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,31 +160,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,15 +175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -168,23 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +227,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,73 +371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,97 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,45 +418,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,8 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,8 +448,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +501,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,10 +523,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,130 +541,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -678,7 +678,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1009,12 +1009,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2882,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E124:E136" si="6">IF(A124="","",SUM(E123-B124+C124))</f>
         <v>128185</v>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="1">
-        <f t="shared" ref="E121:E152" si="6">IF(A125="","",SUM(E124-B125+C125))</f>
+        <f t="shared" si="6"/>
         <v>167042</v>
       </c>
     </row>
@@ -2906,77 +2906,153 @@
         <v>44280</v>
       </c>
       <c r="B126" s="1">
-        <v>34320</v>
+        <v>53040</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="1">
         <f t="shared" si="6"/>
-        <v>132722</v>
+        <v>114002</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="3">
         <v>44280</v>
       </c>
+      <c r="C127" s="1">
+        <v>31677</v>
+      </c>
       <c r="D127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="1">
         <f t="shared" si="6"/>
-        <v>132722</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="1" t="str">
+        <v>145679</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="3">
+        <v>44281</v>
+      </c>
+      <c r="B128" s="1">
+        <v>46800</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="1" t="str">
+        <v>98879</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="3">
+        <v>44282</v>
+      </c>
+      <c r="C129" s="1">
+        <v>52795</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="1" t="str">
+        <v>151674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="3">
+        <v>44282</v>
+      </c>
+      <c r="B130" s="1">
+        <v>30160</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="1" t="str">
+        <v>121514</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="3">
+        <v>44283</v>
+      </c>
+      <c r="C131" s="1">
+        <v>47515</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="1" t="str">
+        <v>169029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="3">
+        <v>44283</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44200</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="5:5">
-      <c r="E133" s="1" t="str">
+        <v>124829</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="3">
+        <v>44284</v>
+      </c>
+      <c r="B133" s="1">
+        <v>31200</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="1" t="str">
+        <v>93629</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="3">
+        <v>44285</v>
+      </c>
+      <c r="C134" s="1">
+        <v>26397</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="5:5">
-      <c r="E135" s="1" t="str">
+        <v>120026</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="3">
+        <v>44285</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="5:5">
+        <v>116906</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="3"/>
       <c r="E136" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -2984,97 +3060,115 @@
     </row>
     <row r="137" spans="5:5">
       <c r="E137" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E135:E155" si="7">IF(A137="","",SUM(E136-B137+C137))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="1" t="str">
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>

--- a/WalletLedger.xlsx
+++ b/WalletLedger.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Wallet" sheetId="3" r:id="rId1"/>
+    <sheet name="Device-Connectivity" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -39,17 +40,26 @@
   <si>
     <t>Ordered Amount</t>
   </si>
+  <si>
+    <t>Device Balance</t>
+  </si>
+  <si>
+    <t>Updated Date</t>
+  </si>
+  <si>
+    <t>Connectivity Balance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,44 +79,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -114,21 +86,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -145,7 +102,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,15 +170,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -177,6 +179,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -212,12 +222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,7 +243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +267,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,13 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +363,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,121 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +434,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,8 +464,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,7 +504,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,45 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -523,10 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,144 +560,153 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,9 +1037,9 @@
   <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1028,24 +1053,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>44202</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1056,7 +1081,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>44202</v>
       </c>
       <c r="C3" s="1">
@@ -1071,7 +1096,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>44202</v>
       </c>
       <c r="B4" s="1">
@@ -1086,7 +1111,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>44203</v>
       </c>
       <c r="C5" s="1">
@@ -1101,7 +1126,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>44203</v>
       </c>
       <c r="C6" s="1">
@@ -1116,7 +1141,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>44203</v>
       </c>
       <c r="B7" s="1">
@@ -1131,7 +1156,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>44204</v>
       </c>
       <c r="B8" s="1">
@@ -1146,10 +1171,10 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>44205</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1">
         <v>34845</v>
       </c>
@@ -1162,7 +1187,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>44205</v>
       </c>
       <c r="B10" s="1">
@@ -1177,7 +1202,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>44206</v>
       </c>
       <c r="B11" s="1">
@@ -1192,7 +1217,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>44207</v>
       </c>
       <c r="C12" s="1">
@@ -1207,7 +1232,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>44207</v>
       </c>
       <c r="B13" s="1">
@@ -1222,7 +1247,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>44208</v>
       </c>
       <c r="B14" s="1">
@@ -1237,7 +1262,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>44209</v>
       </c>
       <c r="B15" s="1">
@@ -1252,7 +1277,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>44209</v>
       </c>
       <c r="C16" s="1">
@@ -1267,7 +1292,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>44210</v>
       </c>
       <c r="B17" s="1">
@@ -1282,7 +1307,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>44210</v>
       </c>
       <c r="C18" s="1">
@@ -1297,7 +1322,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>44211</v>
       </c>
       <c r="B19" s="1">
@@ -1312,7 +1337,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>44212</v>
       </c>
       <c r="B20" s="1">
@@ -1327,7 +1352,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>44212</v>
       </c>
       <c r="C21" s="1">
@@ -1342,13 +1367,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>44213</v>
       </c>
       <c r="B22" s="1">
         <v>58240</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="1">
@@ -1357,13 +1382,13 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>44214</v>
       </c>
       <c r="B23" s="1">
         <v>50960</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="1">
@@ -1372,13 +1397,13 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>44215</v>
       </c>
       <c r="B24" s="1">
         <v>34320</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="1">
@@ -1387,13 +1412,13 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>44216</v>
       </c>
       <c r="B25" s="1">
         <v>40560</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1">
@@ -1402,13 +1427,13 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>44217</v>
       </c>
       <c r="B26" s="1">
         <v>66560</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="1">
@@ -1417,7 +1442,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>44217</v>
       </c>
       <c r="C27" s="1">
@@ -1432,13 +1457,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>44218</v>
       </c>
       <c r="B28" s="1">
         <v>58240</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E28" s="1">
@@ -1447,13 +1472,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>44219</v>
       </c>
       <c r="B29" s="1">
         <v>53040</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="1">
@@ -1462,13 +1487,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3">
+      <c r="A30" s="7">
         <v>44220</v>
       </c>
       <c r="B30" s="1">
         <v>47840</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="1">
@@ -1477,13 +1502,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3">
+      <c r="A31" s="7">
         <v>44221</v>
       </c>
       <c r="B31" s="1">
         <v>46800</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="1">
@@ -1492,7 +1517,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3">
+      <c r="A32" s="7">
         <v>44221</v>
       </c>
       <c r="C32" s="1">
@@ -1507,13 +1532,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3">
+      <c r="A33" s="7">
         <v>44222</v>
       </c>
       <c r="B33" s="1">
         <v>33280</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="1">
@@ -1522,13 +1547,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3">
+      <c r="A34" s="7">
         <v>44223</v>
       </c>
       <c r="B34" s="1">
         <v>58240</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="1">
@@ -1537,13 +1562,13 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3">
+      <c r="A35" s="7">
         <v>44224</v>
       </c>
       <c r="B35" s="1">
         <v>57200</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="1">
@@ -1552,7 +1577,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>44224</v>
       </c>
       <c r="C36" s="1">
@@ -1567,13 +1592,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3">
+      <c r="A37" s="7">
         <v>44225</v>
       </c>
       <c r="B37" s="1">
         <v>35360</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="1">
@@ -1582,7 +1607,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="7">
         <v>44225</v>
       </c>
       <c r="C38" s="1">
@@ -1597,13 +1622,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="3">
+      <c r="A39" s="7">
         <v>44226</v>
       </c>
       <c r="B39" s="1">
         <v>42640</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1">
@@ -1612,13 +1637,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="3">
+      <c r="A40" s="7">
         <v>44227</v>
       </c>
       <c r="B40" s="1">
         <v>57200</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E40" s="1">
@@ -1627,7 +1652,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="3">
+      <c r="A41" s="7">
         <v>44228</v>
       </c>
       <c r="C41" s="1">
@@ -1642,13 +1667,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="3">
+      <c r="A42" s="7">
         <v>44228</v>
       </c>
       <c r="B42" s="1">
         <v>41080</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="1">
@@ -1657,7 +1682,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3">
+      <c r="A43" s="7">
         <v>44229</v>
       </c>
       <c r="C43" s="1">
@@ -1672,13 +1697,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="3">
+      <c r="A44" s="7">
         <v>44229</v>
       </c>
       <c r="B44" s="1">
         <v>53040</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E44" s="1">
@@ -1687,7 +1712,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3">
+      <c r="A45" s="7">
         <v>44229</v>
       </c>
       <c r="C45" s="1">
@@ -1702,13 +1727,13 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="3">
+      <c r="A46" s="7">
         <v>44230</v>
       </c>
       <c r="B46" s="1">
         <v>45760</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="1">
@@ -1717,13 +1742,13 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="3">
+      <c r="A47" s="7">
         <v>44231</v>
       </c>
       <c r="B47" s="1">
         <v>47840</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="1">
@@ -1732,7 +1757,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="3">
+      <c r="A48" s="7">
         <v>44232</v>
       </c>
       <c r="C48" s="1">
@@ -1747,13 +1772,13 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="3">
+      <c r="A49" s="7">
         <v>44232</v>
       </c>
       <c r="B49" s="1">
         <v>26000</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="1">
@@ -1762,13 +1787,13 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="3">
+      <c r="A50" s="7">
         <v>44233</v>
       </c>
       <c r="B50" s="1">
         <v>45760</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="1">
@@ -1777,13 +1802,13 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="3">
+      <c r="A51" s="7">
         <v>44234</v>
       </c>
       <c r="B51" s="1">
         <v>68640</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="1">
@@ -1792,13 +1817,13 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="3">
+      <c r="A52" s="7">
         <v>44235</v>
       </c>
       <c r="B52" s="1">
         <v>54080</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E52" s="1">
@@ -1807,13 +1832,13 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="3">
+      <c r="A53" s="7">
         <v>44236</v>
       </c>
       <c r="B53" s="1">
         <v>46280</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="1">
@@ -1822,13 +1847,13 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="3">
+      <c r="A54" s="7">
         <v>44237</v>
       </c>
       <c r="B54" s="1">
         <v>28080</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E54" s="1">
@@ -1837,7 +1862,7 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="3">
+      <c r="A55" s="7">
         <v>44237</v>
       </c>
       <c r="C55" s="1">
@@ -1852,13 +1877,13 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="3">
+      <c r="A56" s="7">
         <v>44238</v>
       </c>
       <c r="B56" s="1">
         <v>42640</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E56" s="1">
@@ -1867,13 +1892,13 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="3">
+      <c r="A57" s="7">
         <v>44239</v>
       </c>
       <c r="B57" s="1">
         <v>58760</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E57" s="1">
@@ -1882,13 +1907,13 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="3">
+      <c r="A58" s="7">
         <v>44240</v>
       </c>
       <c r="B58" s="1">
         <v>42640</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="1">
@@ -1897,13 +1922,13 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="3">
+      <c r="A59" s="7">
         <v>44241</v>
       </c>
       <c r="B59" s="1">
         <v>47840</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E59" s="1">
@@ -1912,7 +1937,7 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="3">
+      <c r="A60" s="7">
         <v>44241</v>
       </c>
       <c r="C60" s="1">
@@ -1927,7 +1952,7 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="3">
+      <c r="A61" s="7">
         <v>44242</v>
       </c>
       <c r="C61" s="1">
@@ -1942,7 +1967,7 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="3">
+      <c r="A62" s="7">
         <v>44242</v>
       </c>
       <c r="C62" s="1">
@@ -1957,13 +1982,13 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="3">
+      <c r="A63" s="7">
         <v>44242</v>
       </c>
       <c r="B63" s="1">
         <v>48880</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E63" s="1">
@@ -1972,13 +1997,13 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="3">
+      <c r="A64" s="7">
         <v>44243</v>
       </c>
       <c r="B64" s="1">
         <v>67600</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="1">
@@ -1987,13 +2012,13 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="3">
+      <c r="A65" s="7">
         <v>44244</v>
       </c>
       <c r="B65" s="1">
         <v>38480</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="1">
@@ -2002,13 +2027,13 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="3">
+      <c r="A66" s="7">
         <v>44245</v>
       </c>
       <c r="B66" s="1">
         <v>24960</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E66" s="1">
@@ -2017,7 +2042,7 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="3">
+      <c r="A67" s="7">
         <v>44246</v>
       </c>
       <c r="C67" s="1">
@@ -2032,13 +2057,13 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="3">
+      <c r="A68" s="7">
         <v>44246</v>
       </c>
       <c r="B68" s="1">
         <v>75920</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="1">
@@ -2047,13 +2072,13 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="3">
+      <c r="A69" s="7">
         <v>44247</v>
       </c>
       <c r="B69" s="1">
         <v>34320</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="1">
@@ -2062,7 +2087,7 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="3">
+      <c r="A70" s="7">
         <v>44248</v>
       </c>
       <c r="C70" s="1">
@@ -2077,13 +2102,13 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="3">
+      <c r="A71" s="7">
         <v>44248</v>
       </c>
       <c r="B71" s="1">
         <v>29120</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="1">
@@ -2092,13 +2117,13 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="3">
+      <c r="A72" s="7">
         <v>44249</v>
       </c>
       <c r="B72" s="1">
         <v>54080</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="1">
@@ -2107,13 +2132,13 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="3">
+      <c r="A73" s="7">
         <v>44250</v>
       </c>
       <c r="B73" s="1">
         <v>38480</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="1">
@@ -2122,13 +2147,13 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="3">
+      <c r="A74" s="7">
         <v>44251</v>
       </c>
       <c r="B74" s="1">
         <v>43680</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1">
@@ -2137,7 +2162,7 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="3">
+      <c r="A75" s="7">
         <v>44251</v>
       </c>
       <c r="C75" s="1">
@@ -2152,13 +2177,13 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="3">
+      <c r="A76" s="7">
         <v>44252</v>
       </c>
       <c r="B76" s="1">
         <v>38480</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="1">
@@ -2167,13 +2192,13 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="3">
+      <c r="A77" s="7">
         <v>44253</v>
       </c>
       <c r="B77" s="1">
         <v>46800</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="1">
@@ -2182,13 +2207,13 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="3">
+      <c r="A78" s="7">
         <v>44254</v>
       </c>
       <c r="B78" s="1">
         <v>33280</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1">
@@ -2197,13 +2222,13 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="3">
+      <c r="A79" s="7">
         <v>44255</v>
       </c>
       <c r="B79" s="1">
         <v>40560</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1">
@@ -2212,13 +2237,13 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="3">
+      <c r="A80" s="7">
         <v>44256</v>
       </c>
       <c r="B80" s="1">
         <v>44720</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1">
@@ -2227,7 +2252,7 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="3">
+      <c r="A81" s="7">
         <v>44256</v>
       </c>
       <c r="C81" s="1">
@@ -2242,7 +2267,7 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="3">
+      <c r="A82" s="7">
         <v>44257</v>
       </c>
       <c r="C82" s="1">
@@ -2257,13 +2282,13 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="3">
+      <c r="A83" s="7">
         <v>44257</v>
       </c>
       <c r="B83" s="1">
         <v>49920</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1">
@@ -2272,7 +2297,7 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="3">
+      <c r="A84" s="7">
         <v>44258</v>
       </c>
       <c r="C84" s="1">
@@ -2287,13 +2312,13 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="3">
+      <c r="A85" s="7">
         <v>44258</v>
       </c>
       <c r="B85" s="1">
         <v>38480</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="1">
@@ -2302,7 +2327,7 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="3">
+      <c r="A86" s="7">
         <v>44259</v>
       </c>
       <c r="C86" s="1">
@@ -2317,13 +2342,13 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="3">
+      <c r="A87" s="7">
         <v>44259</v>
       </c>
       <c r="B87" s="1">
         <v>54080</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E87" s="1">
@@ -2332,13 +2357,13 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="3">
+      <c r="A88" s="7">
         <v>44260</v>
       </c>
       <c r="B88" s="1">
         <v>60320</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E88" s="1">
@@ -2347,7 +2372,7 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="3">
+      <c r="A89" s="7">
         <v>44261</v>
       </c>
       <c r="C89" s="1">
@@ -2362,7 +2387,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="3">
+      <c r="A90" s="7">
         <v>44261</v>
       </c>
       <c r="C90" s="1">
@@ -2377,13 +2402,13 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="3">
+      <c r="A91" s="7">
         <v>44261</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="9">
         <v>41600</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="1">
@@ -2392,13 +2417,13 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="3">
+      <c r="A92" s="7">
         <v>44262</v>
       </c>
       <c r="B92" s="1">
         <v>45760</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E92" s="1">
@@ -2407,7 +2432,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="3">
+      <c r="A93" s="7">
         <v>44262</v>
       </c>
       <c r="C93" s="1">
@@ -2422,13 +2447,13 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="3">
+      <c r="A94" s="7">
         <v>44263</v>
       </c>
       <c r="B94" s="1">
         <v>46280</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E94" s="1">
@@ -2437,7 +2462,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="3">
+      <c r="A95" s="7">
         <v>44264</v>
       </c>
       <c r="C95" s="1">
@@ -2452,13 +2477,13 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="3">
+      <c r="A96" s="7">
         <v>44264</v>
       </c>
       <c r="B96" s="1">
         <v>52000</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E96" s="1">
@@ -2467,13 +2492,13 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="3">
+      <c r="A97" s="7">
         <v>44265</v>
       </c>
       <c r="B97" s="1">
         <v>20800</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E97" s="1">
@@ -2482,13 +2507,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="3">
+      <c r="A98" s="7">
         <v>44266</v>
       </c>
       <c r="B98" s="1">
         <v>65520</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E98" s="1">
@@ -2497,7 +2522,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="3">
+      <c r="A99" s="7">
         <v>44267</v>
       </c>
       <c r="C99" s="1">
@@ -2512,13 +2537,13 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="3">
+      <c r="A100" s="7">
         <v>44267</v>
       </c>
       <c r="B100" s="1">
         <v>45760</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E100" s="1">
@@ -2527,7 +2552,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="3">
+      <c r="A101" s="7">
         <v>44268</v>
       </c>
       <c r="C101" s="1">
@@ -2542,13 +2567,13 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="3">
+      <c r="A102" s="7">
         <v>44268</v>
       </c>
       <c r="B102" s="1">
         <v>42120</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E102" s="1">
@@ -2557,13 +2582,13 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="3">
+      <c r="A103" s="7">
         <v>44269</v>
       </c>
       <c r="B103" s="1">
         <v>50960</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E103" s="1">
@@ -2572,7 +2597,7 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="3">
+      <c r="A104" s="7">
         <v>44269</v>
       </c>
       <c r="C104" s="1">
@@ -2587,13 +2612,13 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="3">
+      <c r="A105" s="7">
         <v>44270</v>
       </c>
       <c r="B105" s="1">
         <v>44720</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E105" s="1">
@@ -2602,7 +2627,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="3">
+      <c r="A106" s="7">
         <v>44270</v>
       </c>
       <c r="C106" s="1">
@@ -2617,13 +2642,13 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="3">
+      <c r="A107" s="7">
         <v>44271</v>
       </c>
       <c r="B107" s="1">
         <v>59280</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E107" s="1">
@@ -2632,7 +2657,7 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="3">
+      <c r="A108" s="7">
         <v>44271</v>
       </c>
       <c r="C108" s="1">
@@ -2647,7 +2672,7 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="3">
+      <c r="A109" s="7">
         <v>44271</v>
       </c>
       <c r="C109" s="1">
@@ -2662,13 +2687,13 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="3">
+      <c r="A110" s="7">
         <v>44272</v>
       </c>
       <c r="B110" s="1">
         <v>27040</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E110" s="1">
@@ -2677,13 +2702,13 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="3">
+      <c r="A111" s="7">
         <v>44273</v>
       </c>
       <c r="B111" s="1">
         <v>29120</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E111" s="1">
@@ -2692,7 +2717,7 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="3">
+      <c r="A112" s="7">
         <v>44273</v>
       </c>
       <c r="C112" s="1">
@@ -2707,13 +2732,13 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="3">
+      <c r="A113" s="7">
         <v>44274</v>
       </c>
       <c r="B113" s="1">
         <v>48880</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E113" s="1">
@@ -2722,7 +2747,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="3">
+      <c r="A114" s="7">
         <v>44275</v>
       </c>
       <c r="C114" s="1">
@@ -2737,13 +2762,13 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="3">
+      <c r="A115" s="7">
         <v>44275</v>
       </c>
       <c r="B115" s="1">
         <v>50960</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E115" s="1">
@@ -2752,13 +2777,13 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="3">
+      <c r="A116" s="7">
         <v>44276</v>
       </c>
       <c r="B116" s="1">
         <v>41600</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E116" s="1">
@@ -2767,7 +2792,7 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="3">
+      <c r="A117" s="7">
         <v>44277</v>
       </c>
       <c r="C117" s="1">
@@ -2782,13 +2807,13 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="3">
+      <c r="A118" s="7">
         <v>44277</v>
       </c>
       <c r="B118" s="1">
         <v>46800</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1">
@@ -2797,7 +2822,7 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="3">
+      <c r="A119" s="7">
         <v>44278</v>
       </c>
       <c r="C119" s="1">
@@ -2812,7 +2837,7 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="3">
+      <c r="A120" s="7">
         <v>44278</v>
       </c>
       <c r="C120" s="1">
@@ -2827,7 +2852,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="3">
+      <c r="A121" s="7">
         <v>44278</v>
       </c>
       <c r="C121" s="1">
@@ -2842,13 +2867,13 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="3">
+      <c r="A122" s="7">
         <v>44278</v>
       </c>
       <c r="B122" s="1">
         <v>45760</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E122" s="1">
@@ -2857,13 +2882,13 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="3">
+      <c r="A123" s="7">
         <v>44279</v>
       </c>
       <c r="B123" s="1">
         <v>23920</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E123" s="1">
@@ -2872,7 +2897,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="3">
+      <c r="A124" s="7">
         <v>44279</v>
       </c>
       <c r="C124" s="1">
@@ -2887,7 +2912,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="3">
+      <c r="A125" s="7">
         <v>44280</v>
       </c>
       <c r="C125" s="1">
@@ -2902,13 +2927,13 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="3">
+      <c r="A126" s="7">
         <v>44280</v>
       </c>
       <c r="B126" s="1">
         <v>53040</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E126" s="1">
@@ -2917,7 +2942,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="3">
+      <c r="A127" s="7">
         <v>44280</v>
       </c>
       <c r="C127" s="1">
@@ -2932,13 +2957,13 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="3">
+      <c r="A128" s="7">
         <v>44281</v>
       </c>
       <c r="B128" s="1">
         <v>46800</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E128" s="1">
@@ -2947,7 +2972,7 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="3">
+      <c r="A129" s="7">
         <v>44282</v>
       </c>
       <c r="C129" s="1">
@@ -2962,13 +2987,13 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="3">
+      <c r="A130" s="7">
         <v>44282</v>
       </c>
       <c r="B130" s="1">
         <v>30160</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E130" s="1">
@@ -2977,7 +3002,7 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="3">
+      <c r="A131" s="7">
         <v>44283</v>
       </c>
       <c r="C131" s="1">
@@ -2992,13 +3017,13 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="3">
+      <c r="A132" s="7">
         <v>44283</v>
       </c>
       <c r="B132" s="1">
         <v>44200</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E132" s="1">
@@ -3007,13 +3032,13 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="3">
+      <c r="A133" s="7">
         <v>44284</v>
       </c>
       <c r="B133" s="1">
         <v>31200</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="1">
@@ -3022,7 +3047,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="3">
+      <c r="A134" s="7">
         <v>44285</v>
       </c>
       <c r="C134" s="1">
@@ -3037,85 +3062,183 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="3">
+      <c r="A135" s="7">
         <v>44285</v>
       </c>
       <c r="B135" s="1">
-        <v>3120</v>
-      </c>
-      <c r="D135" s="5" t="s">
+        <v>20800</v>
+      </c>
+      <c r="D135" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E135" s="1">
         <f t="shared" si="6"/>
-        <v>116906</v>
+        <v>99226</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="3"/>
-      <c r="E136" s="1" t="str">
+      <c r="A136" s="7">
+        <v>44286</v>
+      </c>
+      <c r="C136" s="1">
+        <v>47515</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="5:5">
-      <c r="E137" s="1" t="str">
+        <v>146741</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7">
+        <v>44286</v>
+      </c>
+      <c r="B137" s="1">
+        <v>40560</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1">
         <f t="shared" ref="E135:E155" si="7">IF(A137="","",SUM(E136-B137+C137))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="5:5">
-      <c r="E138" s="1" t="str">
+        <v>106181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7">
+        <v>44287</v>
+      </c>
+      <c r="C138" s="1">
+        <v>68583</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="5:5">
-      <c r="E139" s="1" t="str">
+        <v>174764</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7">
+        <v>44287</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44200</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="5:5">
-      <c r="E140" s="1" t="str">
+        <v>130564</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7">
+        <v>44288</v>
+      </c>
+      <c r="B140" s="1">
+        <v>65520</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="1" t="str">
+        <v>65044</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7">
+        <v>44288</v>
+      </c>
+      <c r="C141" s="1">
+        <v>63308</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="5:5">
-      <c r="E142" s="1" t="str">
+        <v>128352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7">
+        <v>44289</v>
+      </c>
+      <c r="B142" s="1">
+        <v>65520</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="5:5">
-      <c r="E143" s="1" t="str">
+        <v>62832</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7">
+        <v>44289</v>
+      </c>
+      <c r="C143" s="1">
+        <v>52757</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="1" t="str">
+        <v>115589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7">
+        <v>44290</v>
+      </c>
+      <c r="B144" s="1">
+        <v>50960</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="1" t="str">
+        <v>64629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7">
+        <v>44290</v>
+      </c>
+      <c r="C145" s="1">
+        <v>79135</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="1" t="str">
+        <v>143764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="7">
+        <v>44291</v>
+      </c>
+      <c r="B146" s="1">
+        <v>11440</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1">
         <f t="shared" si="7"/>
-        <v/>
+        <v>132324</v>
       </c>
     </row>
     <row r="147" spans="5:5">
@@ -3170,6 +3293,80 @@
       <c r="E155" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.57142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.57142857142857" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.57142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>20691</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44280</v>
+      </c>
+      <c r="F2" s="1">
+        <v>67</v>
+      </c>
+      <c r="G2" s="7">
+        <v>44280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>10691</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>15861</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44288</v>
       </c>
     </row>
   </sheetData>
